--- a/Festivals/Festivals.xlsx
+++ b/Festivals/Festivals.xlsx
@@ -270,10 +270,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.33"/>
@@ -346,7 +346,9 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
